--- a/medicine/Pharmacie/2006_en_santé_et_médecine/2006_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/2006_en_santé_et_médecine/2006_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2006_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>2006_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 2006 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2006_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>2006_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,18 +523,20 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Épidémie de grippe aviaire
-14 mars : le Ministère de la Santé de l'Azerbaïdjan, relayé par l'Organisation mondiale de la santé (OMS), notifie les trois premiers cas humains, tous mortels, d'infection par le sous-type H5 du virus de la grippe aviaire[1].
-20 mars : le Ministère de la Santé égyptien confirme le premier cas humain d'infection par le virus de la grippe A (H5N1) de la grippe aviaire dans ce pays[2].
-19 avril : le Ministère chinois de la Santé confirmée le 17e cas d'infection humaine par le virus H5N1 de la grippe aviaire chez un travailleur migrant de 21 ans employé à Wuhan, capitale de la province du Hubei[3].
-12 mai : le Ministère de la Santé de Djibouti confirme le premier cas d'infection humaine par le virus H5N1 de la grippe aviaire dans ce pays[4].
-23 juin : premier cas avéré de transmission humaine du virus H5N1 en Indonésie[5].
-26 juillet : le Ministère de la Santé thaïlandais confirme un cas d'infection humaine par le virus H5N1 de la grippe aviaire[6].
-19 septembre : le Ministère iraquien de la santé a rétrospectivement confirmé le troisième cas d'infection humaine par le virus H5N1 de la grippe aviaire[7].
+14 mars : le Ministère de la Santé de l'Azerbaïdjan, relayé par l'Organisation mondiale de la santé (OMS), notifie les trois premiers cas humains, tous mortels, d'infection par le sous-type H5 du virus de la grippe aviaire.
+20 mars : le Ministère de la Santé égyptien confirme le premier cas humain d'infection par le virus de la grippe A (H5N1) de la grippe aviaire dans ce pays.
+19 avril : le Ministère chinois de la Santé confirmée le 17e cas d'infection humaine par le virus H5N1 de la grippe aviaire chez un travailleur migrant de 21 ans employé à Wuhan, capitale de la province du Hubei.
+12 mai : le Ministère de la Santé de Djibouti confirme le premier cas d'infection humaine par le virus H5N1 de la grippe aviaire dans ce pays.
+23 juin : premier cas avéré de transmission humaine du virus H5N1 en Indonésie.
+26 juillet : le Ministère de la Santé thaïlandais confirme un cas d'infection humaine par le virus H5N1 de la grippe aviaire.
+19 septembre : le Ministère iraquien de la santé a rétrospectivement confirmé le troisième cas d'infection humaine par le virus H5N1 de la grippe aviaire.
 Autres événements
-18 avril, Los Angeles : une femme est atteinte de peste bubonique[8]. C'est le premier cas de peste aux États-Unis depuis 22 ans.</t>
+18 avril, Los Angeles : une femme est atteinte de peste bubonique. C'est le premier cas de peste aux États-Unis depuis 22 ans.</t>
         </is>
       </c>
     </row>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2006_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>2006_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>3 février : Pierre Potier (né en 1934), pharmacien et chimiste français.
 28 octobre : Louis Bertagna (né en 1920), psychiatre français, spécialiste du traitement de la dépression.</t>
